--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3129.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3129.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.164882134248034</v>
+        <v>1.609210848808289</v>
       </c>
       <c r="B1">
-        <v>1.580039267180072</v>
+        <v>1.796569466590881</v>
       </c>
       <c r="C1">
-        <v>2.651874283762377</v>
+        <v>1.83873462677002</v>
       </c>
       <c r="D1">
-        <v>5.391606063774184</v>
+        <v>2.355112075805664</v>
       </c>
       <c r="E1">
-        <v>2.005768632577009</v>
+        <v>3.735209703445435</v>
       </c>
     </row>
   </sheetData>
